--- a/biology/Microbiologie/Azohydromonas/Azohydromonas.xlsx
+++ b/biology/Microbiologie/Azohydromonas/Azohydromonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azohydromonas est un genre de bactéries à coloration Gram négative de la famille des Alcaligenaceae placée dans l'ordre des Burkholderiales, classe des Betaproteobacteria. Le genre a été décrit pour la première fois en 2005[1].
-L'espèce type est Azohydromonas lata[1], décrite en 1978 par Palleroni et Palleroni, sous le nom d’Alcaligenes latus[2] et renommée Azohydromonas lata par Xie et Yokota[1].
-Étymologiquement Azohydromonas signifie « bactérie fixatrice d'azote et autotrophe en eau » (A′zo.hy.dro.mo′nas. du français azote ; du grec hydor, l'eau ; et du grec monas, l'unité)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azohydromonas est un genre de bactéries à coloration Gram négative de la famille des Alcaligenaceae placée dans l'ordre des Burkholderiales, classe des Betaproteobacteria. Le genre a été décrit pour la première fois en 2005.
+L'espèce type est Azohydromonas lata, décrite en 1978 par Palleroni et Palleroni, sous le nom d’Alcaligenes latus et renommée Azohydromonas lata par Xie et Yokota.
+Étymologiquement Azohydromonas signifie « bactérie fixatrice d'azote et autotrophe en eau » (A′zo.hy.dro.mo′nas. du français azote ; du grec hydor, l'eau ; et du grec monas, l'unité).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Azohydromonas a été créé en 2005 par Cheng-Hui Xie (d) et Akira Yokota (d)[3],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Azohydromonas a été créé en 2005 par Cheng-Hui Xie (d) et Akira Yokota (d),.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des bacilles coccoïdes de 1,6 à 2,4 μm de long et 1,1 à 1,4 μm de diamètre. Les cellules sont motiles à l'aide de cinq à dix flagelles péritriches. 
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies sont grises, rondes et opaques, croissant dans un plage de température de 15 à 42 °C avec un optimum entre 30 et 35 °C. La croissance est inhibée à une concentration supérieure à 2,5%.
 Elles peuvent pousser sur milieu de culture B-1, ou sur un milieu sélectif composé de glucose, 10,0 g ; CaCl2,2H2O, 0,1 g ; MgSO4,7H2O, 0,1 g ; K2HPO4, 0,9 g ; KH2PO4, 0,1 g ; CaCO3, 5,0 g ; FeSO4,7H2O, 10,0 mg ; Na2MoO4,2H2O, 5,0 mg ; eau distillée, 1,0 l, pH 7,3.
@@ -607,7 +625,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules accumulent des granules de PHB.
 Des activités catalase, oxydase et arginine dihydrolase sont détectées. 
@@ -646,9 +666,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Azhydromonas se trouvent dans le sol[4],[5] et l'air [6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Azhydromonas se trouvent dans le sol, et l'air .
 </t>
         </is>
       </c>
@@ -677,15 +699,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon la LPSN - List of Prokaryotic names with Standing in Nomenclature[7] le genre Azohydromonas comporte six espèces :
-Azohydromonas aeria Xue et al., 2020[6]
-Azohydromonas australica Xie &amp; Yokota, 2005[1]
-Azohydromonas caseinilytica Dahal et al., 2021[8]
-Azohydromonas lata (Palleroni &amp; Palleroni, 1978)[1],[2]
-Azohydromonas riparia Nguyen &amp; Kim, 2017[5]
-Azohydromonas ureilytica Nguyen &amp; Kim, 2017[5]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon la LPSN - List of Prokaryotic names with Standing in Nomenclature le genre Azohydromonas comporte six espèces :
+Azohydromonas aeria Xue et al., 2020
+Azohydromonas australica Xie &amp; Yokota, 2005
+Azohydromonas caseinilytica Dahal et al., 2021
+Azohydromonas lata (Palleroni &amp; Palleroni, 1978),
+Azohydromonas riparia Nguyen &amp; Kim, 2017
+Azohydromonas ureilytica Nguyen &amp; Kim, 2017</t>
         </is>
       </c>
     </row>
@@ -713,7 +737,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Cheng-Hui Xie et Akira Yokota, « Reclassification of Alcaligenes latus strains IAM 12599T and IAM 12664 and Pseudomonas saccharophila as Azohydromonas lata gen. nov., comb. nov., Azohydromonas australica sp. nov. and Pelomonas saccharophila gen. nov., comb. nov., respectively », International Journal of Systematic and Evolutionary Microbiology, Society for General Microbiology (d), vol. 55, no 6,‎ 1er novembre 2005, p. 2419-2425 (ISSN 1466-5026 et 1466-5034, OCLC 807119723, PMID 16280506, DOI 10.1099/IJS.0.63733-0, lire en ligne)</t>
         </is>
